--- a/Copia de Alta de Cliente.xlsx
+++ b/Copia de Alta de Cliente.xlsx
@@ -8,29 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel A Dominguez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6ECD10-4CEA-4FB5-A2EC-92EE9FEAC650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEA2D59-CBD6-41B7-AFA8-3B6CA83ADC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FICHA CLIENTE" sheetId="3" r:id="rId1"/>
+    <sheet name="FICHA CLIENTE" sheetId="4" r:id="rId1"/>
     <sheet name="FormasPago" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -819,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -877,13 +866,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -894,81 +883,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -979,31 +893,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,11 +929,80 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,99 +1027,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>21166</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>20391</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1125513</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D62875F-247D-1E4B-A0A0-922254A80D81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21166" y="0"/>
-          <a:ext cx="6985001" cy="1121703"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>14112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>20391</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>1413</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4203BC-09DC-6E4E-9E02-CB9B08F85FCB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="10914945"/>
-          <a:ext cx="7006167" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1432,11 +1325,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F640C07-FD63-4320-AFB9-D7C07055E3DA}">
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1445,23 +1338,22 @@
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="41" style="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="88.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" spans="1:4" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
@@ -1510,17 +1402,17 @@
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:4" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="63"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
@@ -1530,11 +1422,11 @@
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
     </row>
-    <row r="12" spans="1:4" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
@@ -1546,17 +1438,17 @@
       </c>
       <c r="D13" s="17"/>
     </row>
-    <row r="14" spans="1:4" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
@@ -1567,12 +1459,12 @@
       <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
@@ -1589,22 +1481,22 @@
         <v>26</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
@@ -1617,32 +1509,32 @@
       <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="14"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
@@ -1655,32 +1547,32 @@
       <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
     </row>
     <row r="29" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
@@ -1694,28 +1586,28 @@
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="14"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
-    </row>
-    <row r="35" spans="1:4" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="40"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
@@ -1725,30 +1617,30 @@
       <c r="C37" s="25"/>
       <c r="D37" s="26"/>
     </row>
-    <row r="38" spans="1:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="64" t="s">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="65"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="44"/>
-    </row>
-    <row r="39" spans="1:4" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="66" t="s">
+      <c r="D38" s="42"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="67"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="45"/>
-    </row>
-    <row r="40" spans="1:4" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="40"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="42"/>
+      <c r="D39" s="43"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:4" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
         <v>32</v>
       </c>
@@ -1756,412 +1648,69 @@
       <c r="C42" s="25"/>
       <c r="D42" s="26"/>
     </row>
-    <row r="43" spans="1:4" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="52" t="s">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="54"/>
-    </row>
-    <row r="44" spans="1:4" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="50" t="s">
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="51"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="55"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="55"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="55"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="55"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="55"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="55"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="55"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="55"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="55"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="55"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="55"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="55"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="55"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="55"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="55"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="55"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="55"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="55"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="55"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="55"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="55"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="55"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="55"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="55"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="55"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="55"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="55"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="55"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="55"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="55"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="55"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="55"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="55"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="55"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="55"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="55"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="55"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="55"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="55"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="55"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="55"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="55"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="55"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="55"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="55"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="55"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="55"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="55"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="55"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="55"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="55"/>
-      <c r="D93" s="55"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="55"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="55"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="55"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="55"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="55"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="55"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="55"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="55"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="55"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="55"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="55"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="55"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="55"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="55"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="55"/>
-      <c r="D102" s="55"/>
-    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="34">
+  <mergeCells count="32">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E1:E1048576"/>
-    <mergeCell ref="A47:D102"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="C28:D30"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C23:D25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ACEPTO LPD" sqref="C44" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ACEPTO LPD" sqref="C44" xr:uid="{32A19B64-B2B5-4F92-8C13-4CD86A248D18}">
       <formula1>"SÍ"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrada no válida" promptTitle="Indique la forma de pago" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrada no válida" promptTitle="Indique la forma de pago" xr:uid="{5FD14D7F-80E3-495A-9D6C-6947ABC76104}">
           <x14:formula1>
             <xm:f>FormasPago!$A$2:$A$9</xm:f>
           </x14:formula1>

--- a/Copia de Alta de Cliente.xlsx
+++ b/Copia de Alta de Cliente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel A Dominguez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEA2D59-CBD6-41B7-AFA8-3B6CA83ADC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CFE966-02F0-4386-B54A-FBB92D57EC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>DATOS GENERALES DE LA EMPRESA</t>
   </si>
@@ -125,151 +125,14 @@
 de contenedores retornables:</t>
   </si>
   <si>
-    <t>LEY DE PROTECCIÓN DE DATOS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RESPONSABLE:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RAZÓN SOCIAL: DIMENSA, DAMIAN DIAZ SANCHEZ, S.L. CIF: B06288112 DOMICILIO POSTAL: CTRA. EXT. 105 KM 101.5, 06173, NOGALES (BADAJOZ); TFNO: 924 481 308;  E-MAIL: pauladiaz@dimensasl.com </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">FINALIDAD: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">El cliente acepta expresamente y de forma libre e inequívoca que sus datos personales sean tratados por parte del. Responsable con la finalidad de gestionar su solicitud, así como la realización de actividades administrativas, promocionales y/o publicitarias, o simplemente enviarle información que consideremos de su interés. En este sentido, el usuario CONSIENTE que los datos personales aportados sean incorporados a su sistema de información y para el envío de información comercial a través de internet, sms, fax o cualquier otro medio. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LEGITIMACIÓN:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Interés legítimo del Responsable; Consentimiento del cliente. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DESTINATARIOS:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Dimensa, Damian Diaz Sanchez, S.L. comunicará sus datos personales a las administraciones, organismos públicos y entidades necesarias para el cumplimiento de obligaciones legales( Administración pública, Hacienda, Organismos Reguladores, etc).</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DERECHOS: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">El interesado podrá ejercitar los derechos de acceso, rectificación, cancelación y oposición, así como el derecho al olvido y a la portabilidad de sus datos a través de la siguiente dirección. Ctra. Ext. 105 Km 101.5, 06173, Nogales (Badajoz). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INFORMACIÓN ADICIONAL:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Puede consultar la información adicional y detallada sobre Protección de Datos solicitándola a pauladiaz@dimensasl.com.</t>
-    </r>
-  </si>
-  <si>
-    <t>ACEPTO LA LEY DE PROTECCIÓN DE DATOS:</t>
-  </si>
-  <si>
     <t>Correo electrónico para envío de factura electrónica</t>
-  </si>
-  <si>
-    <t>SÍ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,34 +164,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -349,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -636,21 +478,6 @@
         <color theme="2" tint="-0.499984740745262"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -808,41 +635,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -859,151 +685,74 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1326,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F640C07-FD63-4320-AFB9-D7C07055E3DA}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1342,370 +1091,304 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="13"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="63"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="59"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
+      <c r="A29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="10"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
+      <c r="A33" s="9"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-    </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="24" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+    </row>
+    <row r="37" spans="1:4" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="40" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="42"/>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="44" t="s">
+      <c r="B38" s="34"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="43"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="36"/>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-    </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-    </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-    </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="9"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A39:B39"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ACEPTO LPD" sqref="C44" xr:uid="{32A19B64-B2B5-4F92-8C13-4CD86A248D18}">
-      <formula1>"SÍ"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/Copia de Alta de Cliente.xlsx
+++ b/Copia de Alta de Cliente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel A Dominguez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CFE966-02F0-4386-B54A-FBB92D57EC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A90FFCD-B693-454D-9522-18D4C1D0DF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>DATOS GENERALES DE LA EMPRESA</t>
   </si>
@@ -126,6 +126,21 @@
   </si>
   <si>
     <t>Correo electrónico para envío de factura electrónica</t>
+  </si>
+  <si>
+    <t>ORDEN DE DOMICILIACIÓN DE ADEUDO DIRECTO SEPA</t>
+  </si>
+  <si>
+    <t>Nombre entidad bancaria</t>
+  </si>
+  <si>
+    <t>Domicilio entidad bancaria</t>
+  </si>
+  <si>
+    <t>Código postal</t>
+  </si>
+  <si>
+    <t>Nº DE CUENTA (IBAN 24 caracteres)</t>
   </si>
 </sst>
 </file>
@@ -635,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -688,15 +703,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -709,15 +724,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -736,23 +750,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,15 +1089,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F640C07-FD63-4320-AFB9-D7C07055E3DA}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
@@ -1091,18 +1105,18 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
@@ -1152,10 +1166,10 @@
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="59"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32"/>
@@ -1172,10 +1186,10 @@
       <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
@@ -1188,10 +1202,10 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32"/>
@@ -1230,12 +1244,12 @@
         <v>26</v>
       </c>
       <c r="B19" s="13"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
     </row>
@@ -1258,8 +1272,8 @@
       <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="28"/>
       <c r="D23" s="29"/>
     </row>
@@ -1272,10 +1286,10 @@
       <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
@@ -1296,8 +1310,8 @@
       <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="28"/>
       <c r="D28" s="29"/>
     </row>
@@ -1310,10 +1324,10 @@
       <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
@@ -1375,12 +1389,12 @@
       <c r="D38" s="35"/>
     </row>
     <row r="39" spans="1:4" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="38"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="36"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="19"/>
@@ -1388,8 +1402,54 @@
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
     </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="13"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="13"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="13"/>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="13"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
